--- a/public/documents/trainee_updates_template.xlsx
+++ b/public/documents/trainee_updates_template.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -39,19 +39,31 @@
   </si>
   <si>
     <t>LRI Assessment</t>
+  </si>
+  <si>
+    <t>dob_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,15 +83,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,77 +373,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>76</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
+        <v>24433</v>
+      </c>
+      <c r="C2" s="1">
         <v>42185</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>42155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3">
+        <v>32437</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>42155</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>76</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>28488</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>42216</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
         <v>42200</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/documents/trainee_updates_template.xlsx
+++ b/public/documents/trainee_updates_template.xlsx
@@ -24,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>dob_date</t>
+  </si>
+  <si>
     <t>edp_date</t>
   </si>
   <si>
@@ -38,20 +41,21 @@
     <t>assessment_date</t>
   </si>
   <si>
+    <t>trainee_id</t>
+  </si>
+  <si>
     <t>LRI Assessment</t>
-  </si>
-  <si>
-    <t>dob_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,10 +64,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,19 +99,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="TableStyleLight1" xfId="3"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,124 +395,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="3">
         <v>24433</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>42185</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
         <v>42155</v>
       </c>
+      <c r="F2" s="1">
+        <v>123231234</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="3">
         <v>32437</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
         <v>42155</v>
       </c>
+      <c r="F3" s="1">
+        <v>999334545</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>76</v>
       </c>
       <c r="B4" s="3">
         <v>28488</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
         <v>42216</v>
       </c>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>42200</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
